--- a/Test/book.xlsx
+++ b/Test/book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA AUTO\Auto\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCA908BF-7CBE-41C5-8197-9359FA2AB8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E78C18-423F-4F88-9D8F-F1D6D9933FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67271F9C-DCCC-4008-AF0B-56241F75BABB}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Business Email</t>
   </si>
@@ -45,41 +36,50 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>test1@example.com</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>test2@example.com</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>test3@example.com</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Johnson</t>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Hoàng Thái</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>0904590444</t>
+  </si>
+  <si>
+    <t>BFD.JSC</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Comment 1</t>
+  </si>
+  <si>
+    <t>haht@bfd.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,9 +88,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,19 +119,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,78 +442,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491B3715-05E0-49FB-9740-818FFE5F6826}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2D082-E39B-43EF-A07C-6F699D66E5B3}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1234567890</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9876543210</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1122334455</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>